--- a/teaching/traditional_assets/database/data/finland/finland_drugs_biotechnology.xlsx
+++ b/teaching/traditional_assets/database/data/finland/finland_drugs_biotechnology.xlsx
@@ -590,23 +590,8 @@
           <t>Drugs (Biotechnology)</t>
         </is>
       </c>
-      <c r="G2">
-        <v>-67.2</v>
-      </c>
-      <c r="H2">
-        <v>-122.7</v>
-      </c>
-      <c r="I2">
-        <v>-77.27675761296905</v>
-      </c>
-      <c r="J2">
-        <v>-77.27675761296905</v>
-      </c>
       <c r="K2">
-        <v>-15.91</v>
-      </c>
-      <c r="L2">
-        <v>-79.55</v>
+        <v>-18.47</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -630,73 +615,73 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>4.289</v>
+        <v>18.75</v>
       </c>
       <c r="V2">
-        <v>0.02644266337854501</v>
+        <v>0.091552734375</v>
       </c>
       <c r="W2">
-        <v>-1.049128649487536</v>
+        <v>3.695061728395062</v>
       </c>
       <c r="X2">
-        <v>0.1175310970648929</v>
+        <v>0.06266027892055928</v>
       </c>
       <c r="Y2">
-        <v>-1.166659746552429</v>
+        <v>3.632401449474502</v>
       </c>
       <c r="Z2">
-        <v>0.02429614784634837</v>
+        <v>0</v>
       </c>
       <c r="AA2">
-        <v>2.763762199156327</v>
+        <v>3.137623545295393</v>
       </c>
       <c r="AB2">
-        <v>0.09777679307146517</v>
+        <v>0.0593555342464834</v>
       </c>
       <c r="AC2">
-        <v>2.665985406084862</v>
+        <v>3.07826801104891</v>
       </c>
       <c r="AD2">
-        <v>9.890000000000001</v>
+        <v>9.949999999999999</v>
       </c>
       <c r="AE2">
-        <v>0.251757612969062</v>
+        <v>0.2076740687619426</v>
       </c>
       <c r="AF2">
-        <v>10.14175761296906</v>
+        <v>10.15767406876194</v>
       </c>
       <c r="AG2">
-        <v>5.852757612969063</v>
+        <v>-8.592325931238058</v>
       </c>
       <c r="AH2">
-        <v>0.05884678068413685</v>
+        <v>0.04725429837649175</v>
       </c>
       <c r="AI2">
-        <v>0.8318536124915</v>
+        <v>0.3801855671500312</v>
       </c>
       <c r="AJ2">
-        <v>0.03482690612223188</v>
+        <v>-0.04379199729072185</v>
       </c>
       <c r="AK2">
-        <v>0.7405968776473943</v>
+        <v>-1.078398269944942</v>
       </c>
       <c r="AL2">
-        <v>0.45</v>
+        <v>0.46</v>
       </c>
       <c r="AM2">
-        <v>0.299</v>
+        <v>0.4309999999999999</v>
       </c>
       <c r="AN2">
-        <v>-0.6573612495845796</v>
+        <v>-0.5674689175316527</v>
       </c>
       <c r="AO2">
-        <v>-34.68888888888889</v>
+        <v>-39.06521739130435</v>
       </c>
       <c r="AP2">
-        <v>-0.3890167904931248</v>
+        <v>0.4900379794250062</v>
       </c>
       <c r="AQ2">
-        <v>-52.20735785953176</v>
+        <v>-41.69373549883991</v>
       </c>
     </row>
     <row r="3">
@@ -715,23 +700,8 @@
           <t>Drugs (Biotechnology)</t>
         </is>
       </c>
-      <c r="G3">
-        <v>-58.5</v>
-      </c>
-      <c r="H3">
-        <v>-114</v>
-      </c>
-      <c r="I3">
-        <v>-69.22675761296905</v>
-      </c>
-      <c r="J3">
-        <v>-69.22675761296905</v>
-      </c>
       <c r="K3">
-        <v>-14.2</v>
-      </c>
-      <c r="L3">
-        <v>-70.99999999999999</v>
+        <v>-16</v>
       </c>
       <c r="M3">
         <v>-0</v>
@@ -755,73 +725,73 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>3.29</v>
+        <v>13.1</v>
       </c>
       <c r="V3">
-        <v>0.02186046511627907</v>
+        <v>0.07867867867867867</v>
       </c>
       <c r="W3">
-        <v>-1.808917197452229</v>
+        <v>8</v>
       </c>
       <c r="X3">
-        <v>0.09884187994263968</v>
+        <v>0.05952898253473292</v>
       </c>
       <c r="Y3">
-        <v>-1.907759077394869</v>
+        <v>7.940471017465267</v>
       </c>
       <c r="Z3">
-        <v>-0.08202629938016173</v>
+        <v>-0</v>
       </c>
       <c r="AA3">
-        <v>5.67841474507929</v>
+        <v>6.506444046985285</v>
       </c>
       <c r="AB3">
-        <v>0.09863431063966729</v>
+        <v>0.05882196402581642</v>
       </c>
       <c r="AC3">
-        <v>5.579780434439622</v>
+        <v>6.447622082959469</v>
       </c>
       <c r="AD3">
-        <v>2.69</v>
+        <v>3.12</v>
       </c>
       <c r="AE3">
-        <v>0.251757612969062</v>
+        <v>0.2076740687619426</v>
       </c>
       <c r="AF3">
-        <v>2.941757612969062</v>
+        <v>3.327674068761943</v>
       </c>
       <c r="AG3">
-        <v>-0.3482423870309379</v>
+        <v>-9.772325931238058</v>
       </c>
       <c r="AH3">
-        <v>0.01917181905846744</v>
+        <v>0.01959441585129755</v>
       </c>
       <c r="AI3">
-        <v>3.123688699149069</v>
+        <v>0.2879190093927266</v>
       </c>
       <c r="AJ3">
-        <v>-0.002319269468217395</v>
+        <v>-0.06235226796609382</v>
       </c>
       <c r="AK3">
-        <v>0.1482991657736182</v>
+        <v>6.336096497705649</v>
       </c>
       <c r="AL3">
-        <v>0.341</v>
+        <v>0.352</v>
       </c>
       <c r="AM3">
-        <v>0.19</v>
+        <v>0.323</v>
       </c>
       <c r="AN3">
-        <v>-0.1964220518437386</v>
+        <v>-0.2036021926389976</v>
       </c>
       <c r="AO3">
-        <v>-41.05571847507331</v>
+        <v>-44.31818181818182</v>
       </c>
       <c r="AP3">
-        <v>0.02542843278794727</v>
+        <v>0.6377137778150651</v>
       </c>
       <c r="AQ3">
-        <v>-73.68421052631578</v>
+        <v>-48.29721362229103</v>
       </c>
     </row>
     <row r="4">
@@ -841,7 +811,7 @@
         </is>
       </c>
       <c r="K4">
-        <v>-1.71</v>
+        <v>-2.47</v>
       </c>
       <c r="M4">
         <v>-0</v>
@@ -865,73 +835,73 @@
         <v>0</v>
       </c>
       <c r="U4">
-        <v>0.999</v>
+        <v>5.65</v>
       </c>
       <c r="V4">
-        <v>0.08538461538461539</v>
+        <v>0.1475195822454308</v>
       </c>
       <c r="W4">
-        <v>-0.2893401015228426</v>
+        <v>-0.6098765432098766</v>
       </c>
       <c r="X4">
-        <v>0.1362203141871462</v>
+        <v>0.06579157530638566</v>
       </c>
       <c r="Y4">
-        <v>-0.4255604157099888</v>
+        <v>-0.6756681185162623</v>
       </c>
       <c r="Z4">
         <v>0</v>
       </c>
       <c r="AA4">
-        <v>-0.1508903467666354</v>
+        <v>-0.2311969563944981</v>
       </c>
       <c r="AB4">
-        <v>0.09691927550326304</v>
+        <v>0.0598891044671504</v>
       </c>
       <c r="AC4">
-        <v>-0.2478096222698985</v>
+        <v>-0.2910860608616485</v>
       </c>
       <c r="AD4">
-        <v>7.2</v>
+        <v>6.83</v>
       </c>
       <c r="AE4">
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>7.2</v>
+        <v>6.83</v>
       </c>
       <c r="AG4">
-        <v>6.201000000000001</v>
+        <v>1.18</v>
       </c>
       <c r="AH4">
-        <v>0.380952380952381</v>
+        <v>0.1513405716818081</v>
       </c>
       <c r="AI4">
-        <v>0.64</v>
+        <v>0.4505277044854881</v>
       </c>
       <c r="AJ4">
-        <v>0.34640522875817</v>
+        <v>0.02988855116514691</v>
       </c>
       <c r="AK4">
-        <v>0.6049165935030728</v>
+        <v>0.1240799158780231</v>
       </c>
       <c r="AL4">
-        <v>0.109</v>
+        <v>0.108</v>
       </c>
       <c r="AM4">
-        <v>0.109</v>
+        <v>0.108</v>
       </c>
       <c r="AN4">
-        <v>-5.333333333333333</v>
+        <v>-3.090497737556561</v>
       </c>
       <c r="AO4">
-        <v>-14.77064220183486</v>
+        <v>-21.94444444444445</v>
       </c>
       <c r="AP4">
-        <v>-4.593333333333334</v>
+        <v>-0.5339366515837103</v>
       </c>
       <c r="AQ4">
-        <v>-14.77064220183486</v>
+        <v>-21.94444444444445</v>
       </c>
     </row>
   </sheetData>
